--- a/static/AS2.egCTE.Relationships.xlsx
+++ b/static/AS2.egCTE.Relationships.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\08187U744\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhyan/Documents/Tasks/HTTP_API_Server/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDA5688-E678-46CE-AAE2-C824DEC38B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{481807E1-2815-6E43-9593-ED0FF926E669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25380" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,6 +407,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -763,9 +764,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -895,7 +896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -957,7 +958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>110</v>
       </c>
